--- a/output/google_maps_data_SD_Kulon_Progo.xlsx
+++ b/output/google_maps_data_SD_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SD+Kulon+Progo/@-7.8053056,110.2139841,11z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,25 +520,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>-7.87142</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.87142</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.140377</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+NEGERI+CONEGARAN/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb4ad38bc60b:0x795d186951e01b81!8m2!3d-7.8714195!4d110.1403771!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c6f1_3_l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+NEGERI+CONEGARAN/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb4ad38bc60b:0x795d186951e01b81!8m2!3d-7.8714195!4d110.1403771!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c6f1_3_l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -567,25 +560,24 @@
           <t>0878-3818-5010</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.827406</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.827406</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.188727</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terapan+Budi+Mulyo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa5f0b06774f:0xec84d135ef7ad8a4!8m2!3d-7.8274056!4d110.1887271!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11c6dvl6py?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terapan+Budi+Mulyo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa5f0b06774f:0xec84d135ef7ad8a4!8m2!3d-7.8274056!4d110.1887271!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11c6dvl6py?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -604,25 +596,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.788252</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.788252</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.173519</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wadas/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af068e51e1853:0xff0c0d5288841523!8m2!3d-7.7882519!4d110.1735191!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4ybtb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wadas/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af068e51e1853:0xff0c0d5288841523!8m2!3d-7.7882519!4d110.1735191!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4ybtb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -641,25 +632,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>-7.788617</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.788617</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.194868</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kemukus/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af08c1c182da1:0xc679c363eaf93bb3!8m2!3d-7.7886167!4d110.1948683!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4zq43m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kemukus/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af08c1c182da1:0xc679c363eaf93bb3!8m2!3d-7.7886167!4d110.1948683!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4zq43m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -678,25 +668,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.828437</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.828437</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.226984</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jlaban/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa2381919c21:0x66a8079249dc504e!8m2!3d-7.8284375!4d110.2269844!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5fnnmc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jlaban/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa2381919c21:0x66a8079249dc504e!8m2!3d-7.8284375!4d110.2269844!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5fnnmc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -715,25 +704,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.86758</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.86758</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.17087</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kasatrian/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb134d4ac337:0x9cbac9e2b8e1c17b!8m2!3d-7.86758!4d110.17087!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3dj9cl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kasatrian/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb134d4ac337:0x9cbac9e2b8e1c17b!8m2!3d-7.86758!4d110.17087!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3dj9cl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -752,25 +740,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.898388</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.898388</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.166652</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kemendung/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc9828b310ff:0x85789ffe35d828b8!8m2!3d-7.8983878!4d110.1666515!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2x0nmm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kemendung/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc9828b310ff:0x85789ffe35d828b8!8m2!3d-7.8983878!4d110.1666515!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2x0nmm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -789,25 +776,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>-7.817987</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.817987</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.152047</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Widoro/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afab00a3a0441:0xd6b8e418f3e9900d!8m2!3d-7.8179875!4d110.1520469!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11gbxfrd3b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Widoro/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afab00a3a0441:0xd6b8e418f3e9900d!8m2!3d-7.8179875!4d110.1520469!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11gbxfrd3b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -826,25 +812,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>-7.836855</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.836855</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.135779</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gunungdani/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae554b7307b4d:0xf7b610cd89f6053e!8m2!3d-7.8368549!4d110.1357786!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11g0g9_xch?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gunungdani/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae554b7307b4d:0xf7b610cd89f6053e!8m2!3d-7.8368549!4d110.1357786!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11g0g9_xch?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -863,25 +848,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.918784</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.918784</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.10856</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+NEGERI+DARAT/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae310e202919d:0x7cba88a70d1d45a6!8m2!3d-7.9187845!4d110.1085598!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11dxl80wb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+NEGERI+DARAT/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae310e202919d:0x7cba88a70d1d45a6!8m2!3d-7.9187845!4d110.1085598!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11dxl80wb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -900,25 +884,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.89509</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.89509</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.1235</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kulwaru+Kulon/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae3595cb4af93:0x504504aa36a0199a!8m2!3d-7.8950897!4d110.1234998!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4jj0w0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kulwaru+Kulon/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae3595cb4af93:0x504504aa36a0199a!8m2!3d-7.8950897!4d110.1234998!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4jj0w0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -937,25 +920,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.864754</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.864754</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.161246</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gadingan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb3ef7896283:0x58918a84bfbffec0!8m2!3d-7.8647545!4d110.1612462!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4ttx3s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gadingan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb3ef7896283:0x58918a84bfbffec0!8m2!3d-7.8647545!4d110.1612462!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4ttx3s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -974,25 +956,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>-7.79929</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.79929</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.187957</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negri+2+Wonorejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af1021010af35:0xfaa121cb29481b5f!8m2!3d-7.7992903!4d110.187957!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11h_zb3xyk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negri+2+Wonorejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af1021010af35:0xfaa121cb29481b5f!8m2!3d-7.7992903!4d110.187957!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11h_zb3xyk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1011,25 +992,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>-7.80425</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.80425</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.144013</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Blubuk/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af00103027e81:0x2a9eaf8fa7ee245c!8m2!3d-7.8042496!4d110.144013!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3g215h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Blubuk/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af00103027e81:0x2a9eaf8fa7ee245c!8m2!3d-7.8042496!4d110.144013!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3g215h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1048,25 +1028,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.882283</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.882283</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.156616</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+Giripeni/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb5b938f6ae9:0x3b20672d0547a81!8m2!3d-7.882283!4d110.1566155!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11gfhd2swv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+Giripeni/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb5b938f6ae9:0x3b20672d0547a81!8m2!3d-7.882283!4d110.1566155!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11gfhd2swv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1089,25 +1068,24 @@
           <t>(0274) 000000</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>-7.812866</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.812866</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.119377</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+2+Sermo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae55e8b2e02e9:0x2ff9e12b14d12486!8m2!3d-7.8128664!4d110.1193769!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11b6nr9znx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+2+Sermo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae55e8b2e02e9:0x2ff9e12b14d12486!8m2!3d-7.8128664!4d110.1193769!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11b6nr9znx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1126,25 +1104,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.78467</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.78467</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.207828</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sokaraja/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af094c272cf39:0xd94e2c6453714b70!8m2!3d-7.7846701!4d110.2078281!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11c6_dlqnn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sokaraja/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af094c272cf39:0xd94e2c6453714b70!8m2!3d-7.7846701!4d110.2078281!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11c6_dlqnn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1163,25 +1140,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-7.841229</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.841229</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.188854</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jetak(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%97%EA%A6%BC%EA%A6%A0%EA%A6%8F%EA%A7%80)/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbaa8fc76def:0xbc94f9844d95ee87!8m2!3d-7.8412292!4d110.1888542!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4t6c0x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jetak(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%97%EA%A6%BC%EA%A6%A0%EA%A6%8F%EA%A7%80)/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbaa8fc76def:0xbc94f9844d95ee87!8m2!3d-7.8412292!4d110.1888542!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4t6c0x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1200,25 +1176,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>-7.789188</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.789188</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.152047</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kutogiri/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af019d79c80db:0x9e5f14d6019a7bf6!8m2!3d-7.789188!4d110.1520465!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11g6_1p19n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kutogiri/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af019d79c80db:0x9e5f14d6019a7bf6!8m2!3d-7.789188!4d110.1520465!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11g6_1p19n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1237,25 +1212,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.9</v>
+        <v>-7.877727</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.877727</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.206858</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Kanisius+Bonoharjo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb8dc6a38787:0x77b4593ded6ab05d!8m2!3d-7.8777274!4d110.206858!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3thbnm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Kanisius+Bonoharjo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb8dc6a38787:0x77b4593ded6ab05d!8m2!3d-7.8777274!4d110.206858!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3thbnm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1282,25 +1256,24 @@
           <t>0823-2831-4708</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>-7.824726</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.824726</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.135413</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kedungrejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae54a4db2df3f:0x3c5bafa8dc69ed1!8m2!3d-7.8247265!4d110.1354129!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11cmhvvcg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kedungrejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae54a4db2df3f:0x3c5bafa8dc69ed1!8m2!3d-7.8247265!4d110.1354129!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11cmhvvcg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1319,25 +1292,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.9</v>
+        <v>-7.86498</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.86498</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.187603</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+2+Kalipetir/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb0a9cd92179:0x137990b10fe8cb00!8m2!3d-7.8649796!4d110.187603!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11bycgc7yx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+2+Kalipetir/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb0a9cd92179:0x137990b10fe8cb00!8m2!3d-7.8649796!4d110.187603!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11bycgc7yx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1356,25 +1328,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.7</v>
+        <v>-7.809835</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.809835</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.226084</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Banguncipto+(%EA%A6%B1%EA%A6%BC%E2%80%8B%EA%A6%8F%EA%A6%BA%EA%A6%B4%E2%80%8B%EA%A6%AD%EA%A6%83%E2%80%8B%EA%A6%A2%E2%80%8B%EA%A6%B1%EA%A6%82%E2%80%8B%EA%A6%A4%EA%A6%BC%E2%80%8B%EA%A6%92%EA%A6%BC%E2%80%8B%EA%A6%AB%EA%A6%B6%E2%80%8B%EA%A6%A7%E2%80%8B%EA%A6%94%EA%A6%B8%EA%A6%9A%EA%A7%80%EA%A6%95%EA%A6%B6%EA%A6%A5%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%E2%80%8B+)/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa05af9c0bd3:0x67555e33e2ff7537!8m2!3d-7.8098351!4d110.2260835!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm1qz3wk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1389,25 +1360,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>-7.906602</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.906602</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.126062</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Kulwaru/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae3466fa708b3:0x999003bddc860941!8m2!3d-7.9066018!4d110.126062!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3dc3bg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Kulwaru/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae3466fa708b3:0x999003bddc860941!8m2!3d-7.9066018!4d110.126062!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3dc3bg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1426,25 +1396,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>-7.867132</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.867132</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.209385</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kalimenur/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb950e21a9bf:0x3d023f97d3458fba!8m2!3d-7.8671322!4d110.209385!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4mk_lx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kalimenur/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb950e21a9bf:0x3d023f97d3458fba!8m2!3d-7.8671322!4d110.209385!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4mk_lx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1463,25 +1432,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>-7.8405</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.8405</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.15304</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gebangan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afada6493c133:0xef1dcdb8b2391703!8m2!3d-7.8405!4d110.15304!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3kcyw1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gebangan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afada6493c133:0xef1dcdb8b2391703!8m2!3d-7.8405!4d110.15304!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3kcyw1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1500,25 +1468,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F29" t="n">
-        <v>3.9</v>
+        <v>-7.883483</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.883483</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.11469</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tawangsari/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae498f4445a19:0x8835c08280864f4c!8m2!3d-7.8834832!4d110.1146903!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2zy3kx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tawangsari/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae498f4445a19:0x8835c08280864f4c!8m2!3d-7.8834832!4d110.1146903!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2zy3kx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1537,25 +1504,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.82872</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.82872</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.15341</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Sendangsari/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afac7c116b68d:0x25c368d0792402ed!8m2!3d-7.82872!4d110.15341!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4t1gw0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1570,25 +1536,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>-7.843451</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.843451</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.168963</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+3+Pengasih/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afae16b8ad239:0x726e84e6c644d6e6!8m2!3d-7.8434513!4d110.1689633!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5_tq9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+3+Pengasih/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afae16b8ad239:0x726e84e6c644d6e6!8m2!3d-7.8434513!4d110.1689633!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5_tq9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1611,25 +1576,24 @@
           <t>0813-2812-4622</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.1</v>
+        <v>-7.913731</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.913731</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.095252</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Karangwuni/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae30ae75dc1b9:0x916c626cd10f9dea!8m2!3d-7.9137309!4d110.095252!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm32g0y6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Karangwuni/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae30ae75dc1b9:0x916c626cd10f9dea!8m2!3d-7.9137309!4d110.095252!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm32g0y6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1648,25 +1612,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>-7.823611</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.823611</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.10183</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tegiri/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae592a075c85f:0x4ec914f1e6a0df2a!8m2!3d-7.8236111!4d110.1018295!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11f62jkzpr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tegiri/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae592a075c85f:0x4ec914f1e6a0df2a!8m2!3d-7.8236111!4d110.1018295!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11f62jkzpr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1689,25 +1652,24 @@
           <t>0857-0263-2013</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>-7.771739</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.771739</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.132778</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pringtali/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aefd160a5c145:0x9d25751bc9a3e0e0!8m2!3d-7.7717392!4d110.1327779!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c459l90j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pringtali/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aefd160a5c145:0x9d25751bc9a3e0e0!8m2!3d-7.7717392!4d110.1327779!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c459l90j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1726,25 +1688,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.1</v>
+        <v>-7.799743</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.799743</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.114735</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Plaosan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aef8d16a0e6ff:0x43d6427f32dcd5e1!8m2!3d-7.7997434!4d110.1147349!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4b84ch?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Plaosan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aef8d16a0e6ff:0x43d6427f32dcd5e1!8m2!3d-7.7997434!4d110.1147349!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4b84ch?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1763,25 +1724,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.77108</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.77108</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.183092</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Giripurwo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af056c4b4b76f:0x4ca9a286e745a3d5!8m2!3d-7.7710804!4d110.1830915!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11c58stg8p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Giripurwo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af056c4b4b76f:0x4ca9a286e745a3d5!8m2!3d-7.7710804!4d110.1830915!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11c58stg8p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1804,25 +1764,24 @@
           <t>(0274) 7475628</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.6</v>
+        <v>-7.841885</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.841885</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.168127</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Pengasih/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afac6aaaaaaab:0x95fbe7f312bfb1fc!8m2!3d-7.8418848!4d110.1681272!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1pzr_qfcf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Pengasih/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afac6aaaaaaab:0x95fbe7f312bfb1fc!8m2!3d-7.8418848!4d110.1681272!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1pzr_qfcf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1841,25 +1800,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.8</v>
+        <v>-7.808816</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.808816</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.101514</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Menguri/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aef8778d894cf:0xbd57e41b7f03445c!8m2!3d-7.8088156!4d110.1015138!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11bztf7949?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Menguri/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aef8778d894cf:0xbd57e41b7f03445c!8m2!3d-7.8088156!4d110.1015138!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11bztf7949?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1882,25 +1840,24 @@
           <t>0813-9129-2434</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.9</v>
+        <v>-7.841083</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.841083</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.099389</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+Kokap/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae4e6aaaaaaab:0xc67aa18600a2e41d!8m2!3d-7.8410828!4d110.0993892!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11byflmc82?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+Kokap/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae4e6aaaaaaab:0xc67aa18600a2e41d!8m2!3d-7.8410828!4d110.0993892!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11byflmc82?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1919,25 +1876,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>-7.787088</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.787088</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.121632</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jeruk/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aefc1e5a7b82b:0x8c339dfeb2e9d916!8m2!3d-7.7870884!4d110.121632!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11bxc421gq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jeruk/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aefc1e5a7b82b:0x8c339dfeb2e9d916!8m2!3d-7.7870884!4d110.121632!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11bxc421gq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1956,25 +1912,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.6</v>
+        <v>-7.66074</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.66074</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.207031</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+Madigondo+Wetan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af315ec449795:0xaccce2231a3202cb!8m2!3d-7.66074!4d110.2070308!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11hbvbgfx6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+Madigondo+Wetan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af315ec449795:0xaccce2231a3202cb!8m2!3d-7.66074!4d110.2070308!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11hbvbgfx6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1993,25 +1948,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.2</v>
+        <v>-7.796395</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.796395</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.210177</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Lengkong/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af18ee52709e3:0x8dfbb533b3110764!8m2!3d-7.7963945!4d110.2101765!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11gh730g61?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Lengkong/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af18ee52709e3:0x8dfbb533b3110764!8m2!3d-7.7963945!4d110.2101765!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11gh730g61?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2030,25 +1984,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.4</v>
+        <v>-7.85913</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.85913</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.182003</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Kalipetir/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb08d4d819ed:0xd222e09bd4043c5e!8m2!3d-7.8591303!4d110.1820031!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c5wmmyvf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Kalipetir/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb08d4d819ed:0xd222e09bd4043c5e!8m2!3d-7.8591303!4d110.1820031!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c5wmmyvf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2067,25 +2020,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.9</v>
+        <v>-7.801065</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.801065</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.187979</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+1+Wonorejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af08757df1861:0x186cf7d8823acc04!8m2!3d-7.8010646!4d110.1879792!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2m5g3t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+1+Wonorejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af08757df1861:0x186cf7d8823acc04!8m2!3d-7.8010646!4d110.1879792!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2m5g3t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2108,25 +2060,24 @@
           <t>0813-9226-9187</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.5</v>
+        <v>-7.908401</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.908401</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.198745</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Cabean/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc5d412f18fb:0x5001dac5195bb749!8m2!3d-7.908401!4d110.1987451!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4t1gw1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Cabean/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc5d412f18fb:0x5001dac5195bb749!8m2!3d-7.908401!4d110.1987451!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4t1gw1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2153,25 +2104,24 @@
           <t>0822-6502-0307</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.88623</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.88623</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.183321</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Unggulan+Muhammadiyah+Krembangan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb6a9df061f3:0x46a045d2dd09aee8!8m2!3d-7.8862298!4d110.1833212!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11jm25vb3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Unggulan+Muhammadiyah+Krembangan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb6a9df061f3:0x46a045d2dd09aee8!8m2!3d-7.8862298!4d110.1833212!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11jm25vb3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2190,25 +2140,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.9</v>
+        <v>-7.846903</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.846903</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.155861</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngento+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%94%EA%A6%BC%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4+)/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afad88e32ce5f:0x31841693d8d0a902!8m2!3d-7.8469028!4d110.155861!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm51x_47?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngento+(%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%94%EA%A6%BC%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4+)/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afad88e32ce5f:0x31841693d8d0a902!8m2!3d-7.8469028!4d110.155861!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm51x_47?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2231,25 +2180,24 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>-7.856742</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.856742</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.174515</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+NEGERI+2+PENGASIH/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbf662ac8f8d:0xa1c79f22b7242325!8m2!3d-7.8567416!4d110.1745153!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11smr3bz21?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+NEGERI+2+PENGASIH/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbf662ac8f8d:0xa1c79f22b7242325!8m2!3d-7.8567416!4d110.1745153!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11smr3bz21?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2268,25 +2216,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>-7.841899</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.841899</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.21496</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Sentolo+I/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa3454735ccf:0xf756a05bc93c9c7d!8m2!3d-7.8418991!4d110.21496!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm45jsnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Sentolo+I/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa3454735ccf:0xf756a05bc93c9c7d!8m2!3d-7.8418991!4d110.21496!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm45jsnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2305,25 +2252,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-7.853017</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.853017</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.15262</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Terbahsari/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb26075f150d:0x69e5ed1ef26699fa!8m2!3d-7.8530173!4d110.1526202!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11b69hctj1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Terbahsari/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb26075f150d:0x69e5ed1ef26699fa!8m2!3d-7.8530173!4d110.1526202!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11b69hctj1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2342,25 +2288,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.4</v>
+        <v>-7.892869</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.892869</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.201035</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Demangrejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc70beac3e31:0xb4f1f01e4f42e647!8m2!3d-7.8928693!4d110.2010354!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5vm_lm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Demangrejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc70beac3e31:0xb4f1f01e4f42e647!8m2!3d-7.8928693!4d110.2010354!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5vm_lm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2379,25 +2324,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.5</v>
+        <v>-7.833259</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.833259</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.178703</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kepek/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afaf1a949ee41:0xc41dab15a599d231!8m2!3d-7.833259!4d110.1787034!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm6jrq49?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kepek/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afaf1a949ee41:0xc41dab15a599d231!8m2!3d-7.833259!4d110.1787034!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm6jrq49?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2420,25 +2364,24 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.90314</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.90314</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.204302</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Carikan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afdb7cf9e7d35:0x7ed7bcc383e3bdc2!8m2!3d-7.9031401!4d110.2043016!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11gm9k5gvx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Carikan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afdb7cf9e7d35:0x7ed7bcc383e3bdc2!8m2!3d-7.9031401!4d110.2043016!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11gm9k5gvx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2457,25 +2400,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.893018</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.893018</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.182987</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/State+Elementary+School,+Kepuh/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc817ab18693:0x613279e7a7d1f31c!8m2!3d-7.8930179!4d110.1829869!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11k3gnf2dr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/State+Elementary+School,+Kepuh/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc817ab18693:0x613279e7a7d1f31c!8m2!3d-7.8930179!4d110.1829869!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11k3gnf2dr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2494,25 +2436,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.8</v>
+        <v>-7.892385</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.892385</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.129819</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sumberan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae357987d2b1d:0x8bd11c404853318c!8m2!3d-7.8923854!4d110.1298192!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4bwcky?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sumberan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae357987d2b1d:0x8bd11c404853318c!8m2!3d-7.8923854!4d110.1298192!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4bwcky?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2531,25 +2472,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.3</v>
+        <v>-7.90109</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.90109</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.144181</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Mangunan+Baru/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afcb25d3d005d:0xeefa4931ff0eb308!8m2!3d-7.9010903!4d110.1441812!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3n90c6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Mangunan+Baru/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afcb25d3d005d:0xeefa4931ff0eb308!8m2!3d-7.9010903!4d110.1441812!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3n90c6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2572,25 +2512,24 @@
           <t>0813-2854-4554</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>-7.893169</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.893169</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.141553</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+5+Bendungan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afd791ba9844f:0x775b448c3a5cc51b!8m2!3d-7.8931686!4d110.1415526!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11f713s4qm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+5+Bendungan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afd791ba9844f:0x775b448c3a5cc51b!8m2!3d-7.8931686!4d110.1415526!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11f713s4qm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2613,25 +2552,24 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.4</v>
+        <v>-7.85061</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.85061</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.12261</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Penggung/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae4d8b584e711:0xea0ff758962eb775!8m2!3d-7.85061!4d110.12261!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4b84cg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Penggung/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae4d8b584e711:0xea0ff758962eb775!8m2!3d-7.85061!4d110.12261!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4b84cg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2654,25 +2592,24 @@
           <t>0813-2800-6228</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.8</v>
+        <v>-7.782153</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.782153</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.199158</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Tanjungharjo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af0f298473c73:0xc0220c44b281d5bf!8m2!3d-7.7821532!4d110.199158!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4v8vl1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Tanjungharjo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af0f298473c73:0xc0220c44b281d5bf!8m2!3d-7.7821532!4d110.199158!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4v8vl1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2691,25 +2628,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>-7.915696</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.915696</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.198199</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+POTROGATEN/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc5ae72b571d:0x8bfa5480b6cc4e1d!8m2!3d-7.9156956!4d110.1981991!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11dymb9wbp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+POTROGATEN/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc5ae72b571d:0x8bfa5480b6cc4e1d!8m2!3d-7.9156956!4d110.1981991!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11dymb9wbp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2732,25 +2668,24 @@
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>-7.862468</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.862468</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.161756</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Beji/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb3dd6b6a97f:0xee82e0b10e08b496!8m2!3d-7.8624685!4d110.1617555!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2f6qln?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Beji/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb3dd6b6a97f:0xee82e0b10e08b496!8m2!3d-7.8624685!4d110.1617555!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2f6qln?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2769,25 +2704,24 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.1</v>
+        <v>-7.873469</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.873469</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.105023</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kulur/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae49280afcb5d:0x52b84f05811bd4bd!8m2!3d-7.8734692!4d110.1050226!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm382dcd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kulur/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae49280afcb5d:0x52b84f05811bd4bd!8m2!3d-7.8734692!4d110.1050226!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm382dcd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2810,25 +2744,24 @@
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.2</v>
+        <v>-7.750571</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.750571</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.14706</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+2+Jonggrangan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af1dbfa080161:0x61f01e83f3f104e9!8m2!3d-7.7505714!4d110.1470603!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11cp5hw97n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+2+Jonggrangan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af1dbfa080161:0x61f01e83f3f104e9!8m2!3d-7.7505714!4d110.1470603!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11cp5hw97n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2851,25 +2784,24 @@
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.8</v>
+        <v>-7.94896</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.94896</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.22948</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Sepaten/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afde7331d8263:0x3b899d1f7ff29733!8m2!3d-7.94896!4d110.22948!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm29l43m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Sepaten/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afde7331d8263:0x3b899d1f7ff29733!8m2!3d-7.94896!4d110.22948!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm29l43m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2888,25 +2820,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>-7.896285</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.896285</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.188328</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+Krembangan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc8055555555:0xbf1aad8a75eb6a81!8m2!3d-7.8962851!4d110.188328!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11c47fvt89?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+Krembangan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc8055555555:0xbf1aad8a75eb6a81!8m2!3d-7.8962851!4d110.188328!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11c47fvt89?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2925,25 +2856,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.8</v>
+        <v>-7.817933</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.817933</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.105334</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Hargowilis/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae56538116f53:0x6012385cbde12d4f!8m2!3d-7.8179332!4d110.1053342!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11fztxy8_z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Hargowilis/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae56538116f53:0x6012385cbde12d4f!8m2!3d-7.8179332!4d110.1053342!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11fztxy8_z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2966,25 +2896,24 @@
           <t>0818-0413-1497</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.5</v>
+        <v>-7.939996</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.939996</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.234592</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Brosot/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afdd8941d16f7:0xef26649df6bdfad0!8m2!3d-7.9399963!4d110.2345918!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm48x614?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Brosot/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afdd8941d16f7:0xef26649df6bdfad0!8m2!3d-7.9399963!4d110.2345918!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm48x614?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3003,25 +2932,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>-7.771588</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.771588</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.181834</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+NEGERI+2+GIRIPURWO/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af1e172b4b55d:0xe7652e84dd34c064!8m2!3d-7.771588!4d110.1818343!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11tyb37y5l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+NEGERI+2+GIRIPURWO/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af1e172b4b55d:0xe7652e84dd34c064!8m2!3d-7.771588!4d110.1818343!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11tyb37y5l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3040,25 +2968,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>5</v>
+      </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>-7.886386</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.886386</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.102605</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+NEGERI+KEDUNDANG/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae4850eede871:0x500732961e6f5d3f!8m2!3d-7.886386!4d110.1026052!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11c60n226m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+NEGERI+KEDUNDANG/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae4850eede871:0x500732961e6f5d3f!8m2!3d-7.886386!4d110.1026052!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11c60n226m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3077,25 +3004,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.6</v>
+        <v>-7.815647</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.815647</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.146728</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Girinyono/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afaae73e8c831:0xef18e72aec482841!8m2!3d-7.8156468!4d110.1467281!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2ykh12?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Girinyono/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afaae73e8c831:0xef18e72aec482841!8m2!3d-7.8156468!4d110.1467281!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2ykh12?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3114,25 +3040,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>-7.941038</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.941038</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.164495</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Bugel/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afd17e2f840a9:0x30c465253f34e8b2!8m2!3d-7.9410381!4d110.1644948!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3wm2ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Bugel/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afd17e2f840a9:0x30c465253f34e8b2!8m2!3d-7.9410381!4d110.1644948!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3wm2ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3151,25 +3076,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.4</v>
+        <v>-7.719042</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.719042</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.221896</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Dekso+II/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af3e2e7df236b:0xacab54d602e5f645!8m2!3d-7.7190416!4d110.2218958!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2cd3kd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Dekso+II/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af3e2e7df236b:0xacab54d602e5f645!8m2!3d-7.7190416!4d110.2218958!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm2cd3kd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3188,25 +3112,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.7</v>
+        <v>-7.880731</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.880731</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.248531</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Asemcilik/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af94d93eec411:0x5d05a4a6e105c188!8m2!3d-7.8807315!4d110.2485308!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4n645j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Asemcilik/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af94d93eec411:0x5d05a4a6e105c188!8m2!3d-7.8807315!4d110.2485308!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4n645j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3229,25 +3152,24 @@
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.7</v>
+        <v>-7.863742</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.863742</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.156621</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Mutihan+Wates/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb3967822ee9:0xf32905f1c6757a82!8m2!3d-7.8637423!4d110.156621!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11clvq426w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Mutihan+Wates/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb3967822ee9:0xf32905f1c6757a82!8m2!3d-7.8637423!4d110.156621!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11clvq426w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3266,25 +3188,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.8</v>
+        <v>-7.897097</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.897097</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.222922</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Pergiwatu+Wetan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc1012150dbd:0xc6d566453d897c3b!8m2!3d-7.8970966!4d110.2229216!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3294n5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Pergiwatu+Wetan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc1012150dbd:0xc6d566453d897c3b!8m2!3d-7.8970966!4d110.2229216!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3294n5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3307,25 +3228,24 @@
           <t>0857-2697-4360</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.9</v>
+        <v>-7.864773</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.864773</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.219177</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sukoreno/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbc26cc65bbf:0xefef8d8ac2269af2!8m2!3d-7.8647729!4d110.2191772!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11cjk4vcg0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sukoreno/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbc26cc65bbf:0xefef8d8ac2269af2!8m2!3d-7.8647729!4d110.2191772!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11cjk4vcg0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3344,25 +3264,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4</v>
+      </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>-7.791391</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.791391</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.226053</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Wijilan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af0c0ebdbb4ef:0x260b1228e348a7ff!8m2!3d-7.7913915!4d110.2260533!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4gjwcd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Wijilan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af0c0ebdbb4ef:0x260b1228e348a7ff!8m2!3d-7.7913915!4d110.2260533!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm4gjwcd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3381,25 +3300,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.7</v>
+        <v>-7.90256</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.90256</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.202454</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Butuh/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc68d7254e63:0x2dd62fef3e8c0ff5!8m2!3d-7.9025596!4d110.2024538!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm343fwy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Butuh/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc68d7254e63:0x2dd62fef3e8c0ff5!8m2!3d-7.9025596!4d110.2024538!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm343fwy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3418,25 +3336,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.8</v>
+        <v>-7.873166</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.873166</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.115925</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Hargorejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae49583980f53:0x99db9dd7f8f93eb7!8m2!3d-7.8731662!4d110.1159248!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3vv_30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Hargorejo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae49583980f53:0x99db9dd7f8f93eb7!8m2!3d-7.8731662!4d110.1159248!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3vv_30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3455,25 +3372,24 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.9</v>
+        <v>-7.848234</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.848234</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.217464</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Gembongan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbcbf4995a95:0xbf79a696fa9cfa2d!8m2!3d-7.8482345!4d110.2174644!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c1tlx6n_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Gembongan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbcbf4995a95:0xbf79a696fa9cfa2d!8m2!3d-7.8482345!4d110.2174644!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11c1tlx6n_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3500,25 +3416,24 @@
           <t>0856-4370-0792</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.4</v>
+        <v>-7.753515</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.753515</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.214453</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Ngrojo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af122e1452f2b:0x92ef1de35fcfd0e8!8m2!3d-7.7535151!4d110.2144528!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm35t4kw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Ngrojo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af122e1452f2b:0x92ef1de35fcfd0e8!8m2!3d-7.7535151!4d110.2144528!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm35t4kw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3537,25 +3452,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>3.2</v>
+      </c>
       <c r="F82" t="n">
-        <v>3.2</v>
+        <v>-7.917718</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.917718</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.229105</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Jurug/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc2f364571ed:0xa9ff75f92eb063a5!8m2!3d-7.9177185!4d110.2291049!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm30xlvz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Jurug/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc2f364571ed:0xa9ff75f92eb063a5!8m2!3d-7.9177185!4d110.2291049!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm30xlvz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3574,25 +3488,24 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.8</v>
+        <v>-7.815709</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.815709</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.226567</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+PLOSO/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa1affca45c3:0x6bf41f853b0485ef!8m2!3d-7.8157094!4d110.2265672!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11f3t1v2hh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+PLOSO/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa1affca45c3:0x6bf41f853b0485ef!8m2!3d-7.8157094!4d110.2265672!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11f3t1v2hh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3611,25 +3524,24 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.8</v>
+        <v>-7.836527</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.836527</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.217678</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sentolo+3/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa30d5857f0f:0x577c04d42370bf5e!8m2!3d-7.8365271!4d110.2176778!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11f0_drc88?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sentolo+3/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa30d5857f0f:0x577c04d42370bf5e!8m2!3d-7.8365271!4d110.2176778!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11f0_drc88?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3648,25 +3560,24 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.5</v>
+        <v>-7.842519</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.842519</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.200685</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Kemiri/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa4d9b0815ef:0x31383f6f911ce971!8m2!3d-7.8425188!4d110.2006847!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5r3d3c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Kemiri/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa4d9b0815ef:0x31383f6f911ce971!8m2!3d-7.8425188!4d110.2006847!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5r3d3c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3685,25 +3596,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>-7.846603</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.846603</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.226158</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Lebeng/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbd2f8db8d83:0x47a3fd869d5aa51f!8m2!3d-7.8466028!4d110.2261575!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm26632l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Lebeng/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afbd2f8db8d83:0x47a3fd869d5aa51f!8m2!3d-7.8466028!4d110.2261575!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm26632l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3722,25 +3632,24 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.5</v>
+        <v>-7.807203</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.807203</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.193225</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Donomulyo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa7f28230c09:0x177d35dbf09df91c!8m2!3d-7.8072034!4d110.1932254!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11gfn98tbs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Donomulyo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa7f28230c09:0x177d35dbf09df91c!8m2!3d-7.8072034!4d110.1932254!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11gfn98tbs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -3767,25 +3676,24 @@
           <t>(0274) 773748</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.7</v>
+        <v>-7.860266</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.860266</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.157713</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+4+Wates/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb3b75e1aa6d:0xe9749bd576a383f9!8m2!3d-7.8602655!4d110.157713!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1tgyn7jb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+4+Wates/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb3b75e1aa6d:0xe9749bd576a383f9!8m2!3d-7.8602655!4d110.157713!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1tgyn7jb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3808,25 +3716,24 @@
           <t>(0274) 7726953</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.2</v>
+        <v>-7.887654</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.887654</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.085967</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kalisari/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae47bfc484bab:0xe15738133eabc78!8m2!3d-7.8876542!4d110.0859672!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm39xpkf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kalisari/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae47bfc484bab:0xe15738133eabc78!8m2!3d-7.8876542!4d110.0859672!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1hm39xpkf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3849,25 +3756,24 @@
           <t>(0274) 7809772</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.4</v>
+        <v>-7.940206</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.940206</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.187361</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Patuk/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afd0818688ab9:0xc8d18390556546d4!8m2!3d-7.9402065!4d110.1873608!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm635fph?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Patuk/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afd0818688ab9:0xc8d18390556546d4!8m2!3d-7.9402065!4d110.1873608!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm635fph?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3886,25 +3792,24 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.2</v>
+        <v>-7.80663</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.80663</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.09202</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sungapan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aef7f7a491b07:0x9a9fdd87feb42dd7!8m2!3d-7.80663!4d110.09202!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm61nm21?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sungapan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7aef7f7a491b07:0x9a9fdd87feb42dd7!8m2!3d-7.80663!4d110.09202!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm61nm21?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3924,22 +3829,21 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>-7.911549</v>
+      </c>
       <c r="G92" t="n">
-        <v>-7.911549</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.103453</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sd/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae3000aa38925:0xaa2474219e933c32!8m2!3d-7.9115487!4d110.1034531!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11y50cy7vy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3958,25 +3862,24 @@
           <t>0813-2754-8275</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.2</v>
+        <v>-7.705564</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.705564</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.179125</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+1+Balong+-+Banjarsari+Samigaluh/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af236fd387599:0x520a273addc38b2f!8m2!3d-7.7055644!4d110.1791248!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F11fz2f8cf4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3995,25 +3898,24 @@
           <t>0818-0404-9222</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F94" t="n">
-        <v>4.5</v>
+        <v>-7.806532</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.806532</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.207783</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+NEGERI+DONOMERTO/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af179a4013971:0x20fc1703ec6703ef!8m2!3d-7.8065323!4d110.2077825!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11qzgrglj1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+NEGERI+DONOMERTO/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af179a4013971:0x20fc1703ec6703ef!8m2!3d-7.8065323!4d110.2077825!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11qzgrglj1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4032,25 +3934,24 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>-7.906664</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.906664</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.131311</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Ngestiharjo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae348d906be2f:0x1dda3fae13cf405e!8m2!3d-7.9066636!4d110.131311!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5zxdwc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Muhammadiyah+Ngestiharjo/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7ae348d906be2f:0x1dda3fae13cf405e!8m2!3d-7.9066636!4d110.131311!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm5zxdwc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4073,25 +3974,24 @@
           <t>(0274) 773984</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.4</v>
+        <v>-7.856101</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.856101</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.147192</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Punukan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb2e63a2affb:0x713e969cf69fcb62!8m2!3d-7.8561006!4d110.1471921!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm39x_6j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Punukan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afb2e63a2affb:0x713e969cf69fcb62!8m2!3d-7.8561006!4d110.1471921!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm39x_6j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -4110,25 +4010,24 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F97" t="n">
-        <v>4.8</v>
+        <v>-7.788883</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.788883</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.160797</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kemaras/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af01459f024a1:0x4ae894c249f91cb6!8m2!3d-7.7888828!4d110.1607969!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11cn6dzflt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kemaras/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af01459f024a1:0x4ae894c249f91cb6!8m2!3d-7.7888828!4d110.1607969!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F11cn6dzflt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4155,25 +4054,24 @@
           <t>0857-2586-2211</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.4</v>
+        <v>-7.795713</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.795713</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.230597</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Dukuh/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af0ac394718e9:0x428eae24edaa800f!8m2!3d-7.7957131!4d110.2305968!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1tdr5m7_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Dukuh/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7af0ac394718e9:0x428eae24edaa800f!8m2!3d-7.7957131!4d110.2305968!15sCg5TRCBLdWxvbiBQcm9nb5IBEWVsZW1lbnRhcnlfc2Nob29s4AEA!16s%2Fg%2F1tdr5m7_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4192,25 +4090,24 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>-7.830547</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.830547</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.203707</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+N+kaliagung/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa4470179599:0x67e4cb53279278d9!8m2!3d-7.830547!4d110.2037072!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11f40n2j30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+N+kaliagung/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afa4470179599:0x67e4cb53279278d9!8m2!3d-7.830547!4d110.2037072!15sCg5TRCBLdWxvbiBQcm9nb5IBBnNjaG9vbOABAA!16s%2Fg%2F11f40n2j30?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4233,25 +4130,24 @@
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F100" t="n">
-        <v>4.2</v>
+        <v>-7.906481</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.906481</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.17193</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Panjatan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc93c6b81ee7:0xec889bf6c44f1448!8m2!3d-7.9064806!4d110.1719297!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3hdgmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Panjatan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afc93c6b81ee7:0xec889bf6c44f1448!8m2!3d-7.9064806!4d110.1719297!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm3hdgmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -4270,25 +4166,24 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.3</v>
+        <v>-7.89298</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.89298</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.143877</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+4+Bendungan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afcaba4801bcf:0x6e9530ba94d9c12f!8m2!3d-7.8929799!4d110.1438769!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm1s4x2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+4+Bendungan/@-7.8714195,109.851986,11z/data=!4m10!1m2!2m1!1sSD+Kulon+Progo!3m6!1s0x2e7afcaba4801bcf:0x6e9530ba94d9c12f!8m2!3d-7.8929799!4d110.1438769!15sCg5TRCBLdWxvbiBQcm9nb5IBDnByaW1hcnlfc2Nob29s4AEA!16s%2Fg%2F1hm1s4x2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
